--- a/03_design/TicketList統合テスト仕様書.xlsx
+++ b/03_design/TicketList統合テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ミニプロジェクト\zero1\03_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2DC2C-6C66-4E3C-AF25-F4A4D4384BF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9DC9F-C2C1-43DE-B045-ABD9B361D575}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2250" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -201,80 +201,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.TicketList()を実行する。
-2.チケット1とチケット２の情報を持つTicketクラスのオブジェクトticket1,ticket2をそれぞれ生成する。
-3.addTicket(ticket1), addTicket(ticket2)を実行する。
-4.getTicketList()を実行する。</t>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リスト(ticket1,ticket2)が得られる。</t>
-    <rPh sb="21" eb="22">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ticket1オブジェクトが得られる。</t>
-    <rPh sb="14" eb="15">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※テスト１に続いて実施する。
-1.getTicket(0001, 1)を実行する。</t>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nullが得られる。</t>
-    <rPh sb="5" eb="6">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※テスト１に続いて実施する。
-1.getTicket(0003, 1)を実行する。</t>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>《addTicketStockメソッドのテスト》
 チケットの在庫数を増やす</t>
     <rPh sb="30" eb="32">
@@ -351,55 +277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※テスト１に続いて実施する。
-※境界値分析
-1.getTicket(0002, 2)を実行する。</t>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※テスト１に続いて実施する。
-※境界値分析
-1.getTicket(0002, 1)を実行する。</t>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ticet2オブジェクトが得られる。</t>
-    <rPh sb="13" eb="14">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>《getTicketメソッドのテスト》
 予約数が不正な値の場合</t>
     <rPh sb="20" eb="22">
@@ -420,45 +297,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※テスト１に続いて実施する。
-※境界値分析
-1.getTicket(0001, 0)を実行する。</t>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※テスト１に続いて実施する。
-1.addTicketStock(0001, 1)を実行する。
-2.ticket1.getStock()を実行する。</t>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -479,9 +317,194 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1.TicketList()を実行する。
+2.チケット1とチケット２の情報を持つTicketクラスのオブジェクトticket1,ticket2をそれぞれ生成する。
+3.addTicket(ticket1), addTicket(ticket2)を実行する。
+4.getTicketList()を実行し、戻り値をticketListに格納する。
+5.ticketList[0]==ticket1&amp;&amp;ticketList[1]==ticket2を検証する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テスト１に続いて実施する。
+1.getTicket(0001, 1)を実行し、戻り値をcurrentTicketに格納する。
+2.ticket1==currentTicketを検証する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テスト１に続いて実施する。
+1.getTicket(0003, 1)を実行し、戻り値をcurrentTicketに格納する。
+2isNull(currentTicket)を検証する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テスト１に続いて実施する。
+※境界値分析
+1.getTicket(0002, 2)を実行し、戻り値をcurrentTicketに格納する。
+2isNull(currentTicket)を検証する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テスト１に続いて実施する。
+※境界値分析
+1.getTicket(0001, 0)を実行し、戻り値をcurrentTicketに格納する。
+2isNull(currentTicket)を検証する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テスト１に続いて実施する。
+※境界値分析
+1.getTicket(0002, 1)を実行し、戻り値をcurrentTicketに格納する。
+2.ticket2==currentTicketを検証する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テスト１に続いて実施する。
+1.addTicketStock(0001, 1)を実行する。
+2.ticket1.getStock()の戻り値が5であるか判定する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>※テスト１に続いて実施する。
 1.addTicketStock(0002, 1)を実行する。
-2.ticket2.getStock()を実行する。</t>
+2.ticket2.getStock()の戻り値が0であるか判定する。</t>
     <rPh sb="6" eb="7">
       <t>ツヅ</t>
     </rPh>
@@ -491,8 +514,14 @@
     <rPh sb="41" eb="43">
       <t>ジッコウ</t>
     </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジッコウ</t>
+    <rPh sb="68" eb="69">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1197,8 +1226,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1477,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1493,8 +1522,8 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
-        <v>33</v>
+      <c r="T7" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -1528,10 +1557,10 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1547,8 +1576,8 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="14" t="s">
-        <v>34</v>
+      <c r="T8" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -1582,10 +1611,10 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1601,8 +1630,8 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="14" t="s">
-        <v>36</v>
+      <c r="T9" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -1636,10 +1665,10 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1655,8 +1684,8 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="14" t="s">
-        <v>36</v>
+      <c r="T10" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -1690,10 +1719,10 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1709,8 +1738,8 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="14" t="s">
-        <v>45</v>
+      <c r="T11" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -1744,10 +1773,10 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="28" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1763,8 +1792,8 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="14" t="s">
-        <v>36</v>
+      <c r="T12" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -1798,10 +1827,10 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -1817,8 +1846,8 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="14">
-        <v>5</v>
+      <c r="T13" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -1848,14 +1877,14 @@
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="28" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1871,8 +1900,8 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="14">
-        <v>0</v>
+      <c r="T14" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
@@ -1902,7 +1931,7 @@
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="3"/>
@@ -2153,7 +2182,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
